--- a/Android/ExcelData_V2/StringTable.xlsx
+++ b/Android/ExcelData_V2/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530DD453-41B5-46E6-84BA-BE0A3C2FF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EA113-56DE-446C-B16C-785746C191D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="499">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -2310,6 +2310,21 @@
   <si>
     <t>key_1:string</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_usingitem_0020</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0021</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0022</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0023</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0024</t>
   </si>
 </sst>
 </file>
@@ -3451,8 +3466,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4593,8 +4608,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4754,8 +4769,8 @@
         <f t="shared" si="0"/>
         <v>70006</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>304</v>
+      <c r="B10" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>396</v>
@@ -4769,7 +4784,7 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>397</v>
@@ -4783,7 +4798,7 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>398</v>
@@ -4797,7 +4812,7 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>399</v>
@@ -4811,7 +4826,7 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>400</v>
@@ -4824,8 +4839,8 @@
         <f t="shared" si="0"/>
         <v>70011</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>309</v>
+      <c r="B15" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>27</v>
@@ -4839,7 +4854,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>28</v>
@@ -4853,7 +4868,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
@@ -4867,7 +4882,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>30</v>
@@ -4881,7 +4896,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -4894,8 +4909,8 @@
         <f t="shared" si="0"/>
         <v>70016</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>314</v>
+      <c r="B20" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>401</v>
@@ -4909,7 +4924,7 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>402</v>
@@ -4923,7 +4938,7 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>403</v>
@@ -4937,7 +4952,7 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>404</v>
@@ -4951,7 +4966,7 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>383</v>
+        <v>494</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>405</v>
@@ -4964,8 +4979,8 @@
         <f t="shared" si="0"/>
         <v>70021</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>384</v>
+      <c r="B25" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>32</v>
@@ -4979,7 +4994,7 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -4993,7 +5008,7 @@
         <v>70023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>386</v>
+        <v>497</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>34</v>
@@ -5007,7 +5022,7 @@
         <v>70024</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>387</v>
+        <v>498</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>406</v>
